--- a/策划用_配置表/gun.xlsx
+++ b/策划用_配置表/gun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\plan\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDED740-1115-4646-9814-A2274C7424F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1781790B-7C8F-4F5A-A335-053C70236EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="5760" windowWidth="20250" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="390" windowWidth="17220" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,7 +578,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -637,7 +637,7 @@
         <v>0.4</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>25</v>
@@ -669,7 +669,7 @@
         <v>0.27</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>60</v>
@@ -701,13 +701,13 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>30</v>
       </c>
       <c r="G4">
-        <v>0.35</v>
+        <v>1.5</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -780,7 +780,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/策划用_配置表/gun.xlsx
+++ b/策划用_配置表/gun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\plan\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1781790B-7C8F-4F5A-A335-053C70236EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389AEEA8-B76E-41ED-A6A7-92B583907CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="390" windowWidth="17220" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +238,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -264,12 +272,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +589,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,7 +654,7 @@
         <v>25</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>1.2829999999999999</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -675,7 +686,7 @@
         <v>60</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -706,7 +717,7 @@
       <c r="F4">
         <v>30</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>1.5</v>
       </c>
       <c r="I4" t="s">
@@ -739,7 +750,7 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>3.5</v>
+        <v>1.667</v>
       </c>
       <c r="I5">
         <v>1.5</v>
@@ -767,8 +778,8 @@
       <c r="F6">
         <v>7</v>
       </c>
-      <c r="G6">
-        <v>0.8</v>
+      <c r="G6" s="2">
+        <v>1.2</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
